--- a/Brothers_AMS/TemplateFiles/ActiveInactiveReport.xlsx
+++ b/Brothers_AMS/TemplateFiles/ActiveInactiveReport.xlsx
@@ -18,9 +18,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>REFID</t>
+  </si>
+  <si>
+    <t>ADID</t>
+  </si>
+  <si>
+    <t>EmpNo</t>
+  </si>
+  <si>
+    <t>Family_Name_Suffix</t>
+  </si>
+  <si>
+    <t>Family_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
+  </si>
+  <si>
+    <t>Date_Hired</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Emp_Category</t>
+  </si>
+  <si>
+    <t>Date_Regularized</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CostCode</t>
+  </si>
+  <si>
+    <t>SectionGroup</t>
+  </si>
+  <si>
+    <t>AMS Status</t>
+  </si>
+  <si>
+    <t>AMS Position</t>
+  </si>
+  <si>
+    <t>CostCenter_AMS</t>
+  </si>
+  <si>
+    <t>CostCenter_IT</t>
+  </si>
+  <si>
+    <t>CostCenter_EXPROD</t>
+  </si>
+  <si>
+    <t>Date_Resigned</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +114,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,14 +432,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>